--- a/weekly-planner.xlsx
+++ b/weekly-planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianningli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D46267F-63B1-D340-A3E7-564DA752B1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E37470D-3FC7-2349-8838-2EAD1B8FDFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="460" windowWidth="25600" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31460" yWindow="1260" windowWidth="25600" windowHeight="16620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Days1-2" sheetId="2" r:id="rId1"/>
@@ -1309,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3479,7 +3479,7 @@
   </sheetPr>
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5596,12 +5596,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -5611,6 +5605,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
@@ -5636,9 +5636,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -7766,12 +7764,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -7781,6 +7773,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
@@ -7806,9 +7804,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -9936,12 +9932,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -9951,6 +9941,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="equal">
@@ -9976,9 +9972,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -12106,12 +12100,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -12121,6 +12109,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
@@ -12146,9 +12140,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -14276,12 +14268,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -14291,6 +14277,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
@@ -14316,9 +14308,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -14329,8 +14319,8 @@
   </sheetPr>
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16446,12 +16436,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:F8"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="A45:V45"/>
     <mergeCell ref="E9:F9"/>
@@ -16461,6 +16445,12 @@
     <mergeCell ref="H37:N37"/>
     <mergeCell ref="P37:V37"/>
     <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:N12 P7:V12">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
@@ -16486,9 +16476,7 @@
   </conditionalFormatting>
   <pageMargins left="0.6" right="0.25" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;8© 2013 Vertex42 LLC&amp;R&amp;8https://www.vertex42.com/calendars/daily-planner.html</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
